--- a/Assets/Resources/CSV.data/WeaponBasePrice.xlsx
+++ b/Assets/Resources/CSV.data/WeaponBasePrice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>WeaponCode</t>
-  </si>
-  <si>
-    <t>BasePrice</t>
   </si>
   <si>
     <t>PISTOL</t>
@@ -46,6 +43,19 @@
   </si>
   <si>
     <t>DRIVER</t>
+  </si>
+  <si>
+    <t>기본 가격 (티어1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 가격 (티어2)</t>
+  </si>
+  <si>
+    <t>기본 가격 (티어3)</t>
+  </si>
+  <si>
+    <t>기본 가격 (티어4)</t>
   </si>
 </sst>
 </file>
@@ -985,81 +995,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
+      <c r="C3" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
       </c>
+      <c r="C4" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
       </c>
+      <c r="C5" s="2">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
+      <c r="C6" s="2">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
       </c>
+      <c r="C7" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/WeaponBasePrice.xlsx
+++ b/Assets/Resources/CSV.data/WeaponBasePrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>WeaponCode</t>
   </si>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>기본 가격 (티어4)</t>
+  </si>
+  <si>
+    <t>WAND</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORCH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1145,6 +1153,40 @@
         <v>91</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
